--- a/01_Requirements/Individual Balance Sheet- Horizontal format.xlsx
+++ b/01_Requirements/Individual Balance Sheet- Horizontal format.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IIT's\Accounting Reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Projects\IIT\01_Requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A5A8246-5C25-4FB5-AD4D-AFF9727F3BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BB982DB8-16C6-44DE-967A-309B02F91A71}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Balance Sheet- Ind" sheetId="1" r:id="rId1"/>
@@ -231,10 +230,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -517,23 +516,23 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -542,31 +541,10 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -583,7 +561,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -591,7 +569,7 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -603,18 +581,39 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="2" fillId="9" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="2" fillId="8" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="2" fillId="10" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="8" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="10" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -930,413 +929,413 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0254D67A-B034-43EF-A441-1F17523EAD1C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F1:I60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="C70" zoomScale="102" workbookViewId="0">
+      <selection activeCell="G73" sqref="G73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="9.140625" style="10"/>
-    <col min="6" max="6" width="50.7109375" style="10" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" style="10" customWidth="1"/>
-    <col min="8" max="8" width="50.7109375" style="10" customWidth="1"/>
-    <col min="9" max="9" width="20.7109375" style="10" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="10"/>
+    <col min="1" max="5" width="9.140625" style="9"/>
+    <col min="6" max="6" width="50.7109375" style="9" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" style="9" customWidth="1"/>
+    <col min="8" max="8" width="50.7109375" style="9" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" style="9" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="6:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="13"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="45"/>
     </row>
     <row r="3" spans="6:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="16"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="48"/>
     </row>
     <row r="4" spans="6:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="6:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="14">
         <v>500</v>
       </c>
-      <c r="H5" s="22" t="s">
+      <c r="H5" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="23"/>
+      <c r="I5" s="16"/>
     </row>
     <row r="6" spans="6:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F6" s="24"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="21" t="s">
+      <c r="F6" s="17"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="26">
+      <c r="I6" s="19">
         <v>500</v>
       </c>
     </row>
     <row r="7" spans="6:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25" t="s">
+      <c r="G7" s="18"/>
+      <c r="H7" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="23">
+      <c r="I7" s="16">
         <v>100</v>
       </c>
     </row>
     <row r="8" spans="6:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="28">
+      <c r="G8" s="21">
         <v>150</v>
       </c>
-      <c r="H8" s="21" t="s">
+      <c r="H8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="29">
+      <c r="I8" s="22">
         <f>I6-I7</f>
         <v>400</v>
       </c>
     </row>
     <row r="9" spans="6:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F9" s="27" t="s">
+      <c r="F9" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="28">
+      <c r="G9" s="21">
         <v>100</v>
       </c>
-      <c r="H9" s="25"/>
-      <c r="I9" s="23"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="16"/>
     </row>
     <row r="10" spans="6:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F10" s="24"/>
-      <c r="G10" s="30">
+      <c r="F10" s="17"/>
+      <c r="G10" s="23">
         <f>SUM(G8:G9)</f>
         <v>250</v>
       </c>
-      <c r="H10" s="31" t="s">
+      <c r="H10" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="32">
+      <c r="I10" s="25">
         <v>235</v>
       </c>
     </row>
     <row r="11" spans="6:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="23"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="16"/>
     </row>
     <row r="12" spans="6:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F12" s="24" t="s">
+      <c r="F12" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="33">
+      <c r="G12" s="26">
         <v>80</v>
       </c>
-      <c r="H12" s="25"/>
-      <c r="I12" s="23"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="16"/>
     </row>
     <row r="13" spans="6:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F13" s="34" t="s">
+      <c r="F13" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="G13" s="33"/>
-      <c r="H13" s="21" t="s">
+      <c r="G13" s="26"/>
+      <c r="H13" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="23"/>
+      <c r="I13" s="16"/>
     </row>
     <row r="14" spans="6:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F14" s="27" t="s">
+      <c r="F14" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="33">
+      <c r="G14" s="26">
         <v>10</v>
       </c>
-      <c r="H14" s="35" t="s">
+      <c r="H14" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="36">
+      <c r="I14" s="29">
         <v>100</v>
       </c>
     </row>
     <row r="15" spans="6:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F15" s="27" t="s">
+      <c r="F15" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="33">
+      <c r="G15" s="26">
         <v>20</v>
       </c>
-      <c r="H15" s="35" t="s">
+      <c r="H15" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="I15" s="36">
+      <c r="I15" s="29">
         <v>35</v>
       </c>
     </row>
     <row r="16" spans="6:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F16" s="24" t="s">
+      <c r="F16" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="G16" s="33">
+      <c r="G16" s="26">
         <v>20</v>
       </c>
-      <c r="H16" s="35" t="s">
+      <c r="H16" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="I16" s="36">
+      <c r="I16" s="29">
         <v>30</v>
       </c>
     </row>
     <row r="17" spans="6:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F17" s="24" t="s">
+      <c r="F17" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="G17" s="33">
+      <c r="G17" s="26">
         <v>50</v>
       </c>
-      <c r="H17" s="35" t="s">
+      <c r="H17" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="I17" s="36">
+      <c r="I17" s="29">
         <v>40</v>
       </c>
     </row>
     <row r="18" spans="6:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F18" s="24"/>
-      <c r="G18" s="37">
+      <c r="F18" s="17"/>
+      <c r="G18" s="30">
         <f>SUM(G12:G17)</f>
         <v>180</v>
       </c>
-      <c r="H18" s="35" t="s">
+      <c r="H18" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="I18" s="36">
+      <c r="I18" s="29">
         <v>50</v>
       </c>
     </row>
     <row r="19" spans="6:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F19" s="24"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="35" t="s">
+      <c r="F19" s="17"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="I19" s="36">
+      <c r="I19" s="29">
         <v>10</v>
       </c>
     </row>
     <row r="20" spans="6:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F20" s="24"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="35" t="s">
+      <c r="F20" s="17"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="I20" s="36">
+      <c r="I20" s="29">
         <v>10</v>
       </c>
     </row>
     <row r="21" spans="6:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F21" s="24"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="35" t="s">
+      <c r="F21" s="17"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="I21" s="36">
+      <c r="I21" s="29">
         <v>10</v>
       </c>
     </row>
     <row r="22" spans="6:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F22" s="24"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="35" t="s">
+      <c r="F22" s="17"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="I22" s="36">
+      <c r="I22" s="29">
         <v>10</v>
       </c>
     </row>
     <row r="23" spans="6:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F23" s="24"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="38">
+      <c r="F23" s="17"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="31">
         <f>SUM(I14:I22)</f>
         <v>295</v>
       </c>
     </row>
     <row r="24" spans="6:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F24" s="39" t="s">
+      <c r="F24" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="G24" s="40">
+      <c r="G24" s="33">
         <f>G18+G10+G5</f>
         <v>930</v>
       </c>
-      <c r="H24" s="40" t="s">
+      <c r="H24" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="I24" s="41">
+      <c r="I24" s="34">
         <f>I23+I10+I8</f>
         <v>930</v>
       </c>
     </row>
     <row r="27" spans="6:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F27" s="42" t="s">
+      <c r="F27" s="35" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="28" spans="6:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F28" s="10" t="s">
+      <c r="F28" s="9" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="30" spans="6:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F30" s="10" t="s">
+      <c r="F30" s="9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="32" spans="6:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F32" s="10" t="s">
+      <c r="F32" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="34" spans="6:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F34" s="10" t="s">
+      <c r="F34" s="9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="38" spans="6:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F38" s="15" t="s">
+      <c r="F38" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
+      <c r="G38" s="47"/>
+      <c r="H38" s="47"/>
+      <c r="I38" s="47"/>
     </row>
     <row r="39" spans="6:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F39" s="18" t="s">
+      <c r="F39" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G39" s="18" t="s">
+      <c r="G39" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="H39" s="18" t="s">
+      <c r="H39" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="I39" s="18" t="s">
+      <c r="I39" s="11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="40" spans="6:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F40" s="25" t="s">
+      <c r="F40" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="G40" s="43">
+      <c r="G40" s="36">
         <v>150</v>
       </c>
-      <c r="H40" s="25" t="s">
+      <c r="H40" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="I40" s="44">
+      <c r="I40" s="37">
         <v>1500</v>
       </c>
     </row>
     <row r="41" spans="6:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F41" s="25" t="s">
+      <c r="F41" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="G41" s="43">
+      <c r="G41" s="36">
         <v>50</v>
       </c>
-      <c r="H41" s="25" t="s">
+      <c r="H41" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="I41" s="44">
+      <c r="I41" s="37">
         <v>500</v>
       </c>
     </row>
     <row r="42" spans="6:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F42" s="25" t="s">
+      <c r="F42" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="G42" s="45"/>
-      <c r="H42" s="25" t="s">
+      <c r="G42" s="38"/>
+      <c r="H42" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="I42" s="44">
+      <c r="I42" s="37">
         <v>200</v>
       </c>
     </row>
     <row r="43" spans="6:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F43" s="25"/>
-      <c r="G43" s="45"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="44"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="38"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="37"/>
     </row>
     <row r="44" spans="6:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F44" s="25" t="s">
+      <c r="F44" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="G44" s="46">
+      <c r="G44" s="39">
         <f>I45-SUM(G40:G43)</f>
         <v>2000</v>
       </c>
-      <c r="H44" s="25"/>
-      <c r="I44" s="44"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="37"/>
     </row>
     <row r="45" spans="6:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F45" s="47" t="s">
+      <c r="F45" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="G45" s="48">
+      <c r="G45" s="41">
         <f>SUM(G40:G44)</f>
         <v>2200</v>
       </c>
-      <c r="H45" s="47" t="s">
+      <c r="H45" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="I45" s="48">
+      <c r="I45" s="41">
         <f>SUM(I40:I44)</f>
         <v>2200</v>
       </c>
     </row>
     <row r="48" spans="6:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F48" s="9" t="s">
+      <c r="F48" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="G48" s="9"/>
+      <c r="G48" s="49"/>
     </row>
     <row r="49" spans="6:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F49" s="6" t="s">
@@ -1426,10 +1425,10 @@
       <c r="G59" s="8"/>
     </row>
     <row r="60" spans="6:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F60" s="49" t="s">
+      <c r="F60" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="G60" s="49"/>
+      <c r="G60" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="4">
